--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\source\rizky\showexcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,36 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Rizki</t>
-  </si>
-  <si>
-    <t>Malem</t>
-  </si>
-  <si>
-    <t>Atalia</t>
-  </si>
-  <si>
-    <t>Swan</t>
-  </si>
-  <si>
-    <t>Della</t>
-  </si>
-  <si>
-    <t>Amellia</t>
-  </si>
-  <si>
-    <t>Depan</t>
-  </si>
-  <si>
-    <t>Belakang</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Head1</t>
+  </si>
+  <si>
+    <t>Head2</t>
+  </si>
+  <si>
+    <t>Head3</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -365,48 +363,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>456</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4">
+        <v>789</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
